--- a/app/src/main/res/raw/template_kspad.xlsx
+++ b/app/src/main/res/raw/template_kspad.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="311">
   <si>
     <t>ОАО «Уралэлектро»</t>
   </si>
@@ -1193,19 +1193,70 @@
     <t>$R48</t>
   </si>
   <si>
-    <t>Превышение темп. обмотки статора</t>
-  </si>
-  <si>
-    <t>Q</t>
+    <t>Темп. корпуса</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.0"/>
+      </rPr>
+      <t>к</t>
+    </r>
   </si>
   <si>
     <t>°C</t>
   </si>
   <si>
+    <t>$N70</t>
+  </si>
+  <si>
+    <t>$R70</t>
+  </si>
+  <si>
+    <t>Темп. обмотки статора</t>
+  </si>
+  <si>
+    <r>
+      <t>Q</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7.0"/>
+      </rPr>
+      <t>с</t>
+    </r>
+  </si>
+  <si>
     <t>$N49</t>
   </si>
   <si>
     <t>$R49</t>
+  </si>
+  <si>
+    <t>Сопротивление обмотки статора хол.</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.0"/>
+      </rPr>
+      <t>х</t>
+    </r>
+  </si>
+  <si>
+    <t>Ω</t>
+  </si>
+  <si>
+    <t>$N71</t>
+  </si>
+  <si>
+    <t>$R71</t>
   </si>
   <si>
     <t>Сопротивление обмотки статора при 20 °C</t>
@@ -1222,13 +1273,30 @@
     </r>
   </si>
   <si>
-    <t>Ω</t>
-  </si>
-  <si>
     <t>$N50</t>
   </si>
   <si>
     <t>$R50</t>
+  </si>
+  <si>
+    <t>Сопротивление обмотки статора гор.</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.0"/>
+      </rPr>
+      <t>г</t>
+    </r>
+  </si>
+  <si>
+    <t>$N72</t>
+  </si>
+  <si>
+    <t>$R72</t>
   </si>
   <si>
     <t>Сопротивление изоляции обмотки статора: хол/гор</t>
@@ -1734,7 +1802,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1748,7 +1816,7 @@
     <col customWidth="1" min="2" max="2" width="32.43"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1839,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" ht="17.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1901,7 +1969,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" ht="26.25">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
@@ -3917,16 +3985,16 @@
       <c r="C58" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="D58" s="23" t="s">
+      <c r="D58" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="16" t="s">
         <v>223</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>224</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="22"/>
-      <c r="H58" s="12" t="s">
-        <v>225</v>
+      <c r="H58" s="16" t="s">
+        <v>224</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -3947,26 +4015,26 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59">
+    <row r="59" ht="26.25">
       <c r="A59" s="21">
         <v>51.0</v>
       </c>
       <c r="B59" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="D59" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D59" s="21" t="s">
+      <c r="E59" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>229</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
       <c r="H59" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -3987,26 +4055,26 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60">
+    <row r="60" ht="26.25">
       <c r="A60" s="21">
         <v>52.0</v>
       </c>
       <c r="B60" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="D60" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E60" s="16" t="s">
         <v>232</v>
-      </c>
-      <c r="D60" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>233</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
       <c r="H60" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -4027,26 +4095,26 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61">
+    <row r="61" ht="26.25">
       <c r="A61" s="21">
         <v>53.0</v>
       </c>
       <c r="B61" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="D61" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>237</v>
       </c>
       <c r="F61" s="22"/>
       <c r="G61" s="22"/>
       <c r="H61" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -4067,18 +4135,18 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62">
+    <row r="62" ht="26.25">
       <c r="A62" s="21">
         <v>54.0</v>
       </c>
       <c r="B62" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="D62" s="21" t="s">
         <v>240</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="E62" s="16" t="s">
         <v>241</v>
@@ -4125,7 +4193,7 @@
       </c>
       <c r="F63" s="22"/>
       <c r="G63" s="22"/>
-      <c r="H63" s="16" t="s">
+      <c r="H63" s="12" t="s">
         <v>246</v>
       </c>
       <c r="I63" s="2"/>
@@ -4165,7 +4233,7 @@
       </c>
       <c r="F64" s="22"/>
       <c r="G64" s="22"/>
-      <c r="H64" s="12" t="s">
+      <c r="H64" s="16" t="s">
         <v>250</v>
       </c>
       <c r="I64" s="2"/>
@@ -4235,18 +4303,18 @@
         <v>255</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>33</v>
+        <v>256</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F66" s="22"/>
       <c r="G66" s="22"/>
-      <c r="H66" s="12" t="s">
-        <v>257</v>
+      <c r="H66" s="16" t="s">
+        <v>258</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -4272,17 +4340,21 @@
         <v>59.0</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>258</v>
-      </c>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+        <v>259</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="E67" s="16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="16" t="s">
-        <v>260</v>
+      <c r="H67" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -4308,21 +4380,21 @@
         <v>60.0</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
-      <c r="H68" s="12" t="s">
-        <v>263</v>
+      <c r="H68" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -4348,21 +4420,21 @@
         <v>61.0</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="22"/>
-      <c r="H69" s="16" t="s">
-        <v>266</v>
+      <c r="H69" s="12" t="s">
+        <v>269</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -4383,26 +4455,22 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70">
+    <row r="70" ht="26.25">
       <c r="A70" s="21">
         <v>62.0</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>39</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="16" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F70" s="22"/>
       <c r="G70" s="22"/>
-      <c r="H70" s="12" t="s">
-        <v>269</v>
+      <c r="H70" s="16" t="s">
+        <v>272</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -4428,17 +4496,21 @@
         <v>63.0</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+        <v>273</v>
+      </c>
+      <c r="C71" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="E71" s="16" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F71" s="22"/>
       <c r="G71" s="22"/>
-      <c r="H71" s="16" t="s">
-        <v>272</v>
+      <c r="H71" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -4464,21 +4536,21 @@
         <v>64.0</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D72" s="21" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="22"/>
-      <c r="H72" s="12" t="s">
-        <v>274</v>
+      <c r="H72" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -4504,21 +4576,21 @@
         <v>65.0</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C73" s="21" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="D73" s="21" t="s">
-        <v>277</v>
+        <v>39</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
-      <c r="H73" s="16" t="s">
-        <v>279</v>
+      <c r="H73" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -4539,22 +4611,22 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74">
+    <row r="74" ht="26.25">
       <c r="A74" s="21">
         <v>66.0</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C74" s="22"/>
       <c r="D74" s="22"/>
       <c r="E74" s="16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="22"/>
-      <c r="H74" s="12" t="s">
-        <v>282</v>
+      <c r="H74" s="16" t="s">
+        <v>284</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -4575,26 +4647,26 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" ht="18.75" customHeight="1">
+    <row r="75">
       <c r="A75" s="21">
         <v>67.0</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D75" s="21" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
-      <c r="H75" s="16" t="s">
-        <v>285</v>
+      <c r="H75" s="12" t="s">
+        <v>286</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -4620,21 +4692,21 @@
         <v>68.0</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="D76" s="21" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="12" t="s">
-        <v>287</v>
+      <c r="H76" s="16" t="s">
+        <v>291</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -4655,26 +4727,22 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77">
+    <row r="77" ht="26.25">
       <c r="A77" s="16">
         <v>69.0</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>39</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="16" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
-      <c r="H77" s="16" t="s">
-        <v>290</v>
+      <c r="H77" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -4696,6 +4764,26 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78" ht="18.75" customHeight="1">
+      <c r="A78" s="16">
+        <v>70.0</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="16" t="s">
+        <v>297</v>
+      </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
@@ -4715,17 +4803,27 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="24"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="7"/>
+    <row r="79">
+      <c r="A79" s="16">
+        <v>71.0</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D79" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="12" t="s">
+        <v>299</v>
+      </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
@@ -4745,15 +4843,27 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="7"/>
+    <row r="80" ht="26.25">
+      <c r="A80" s="16">
+        <v>72.0</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D80" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="16" t="s">
+        <v>302</v>
+      </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
@@ -4773,15 +4883,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="7"/>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="7"/>
+    <row r="81" ht="18.75" customHeight="1">
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
@@ -4801,10 +4903,12 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
+    <row r="82">
+      <c r="A82" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" s="24"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
@@ -4829,12 +4933,10 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="24"/>
+    <row r="83">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
@@ -4859,7 +4961,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -4887,7 +4989,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -4915,10 +5017,12 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="7"/>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
+    <row r="86">
+      <c r="A86" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" s="24"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
@@ -4943,9 +5047,15 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" ht="18.75" customHeight="1">
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
+    <row r="87">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="7"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
@@ -4965,20 +5075,15 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C88" s="25" t="s">
-        <v>294</v>
-      </c>
+    <row r="88">
+      <c r="A88" s="7"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="7"/>
-      <c r="G88" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="H88" s="24" t="s">
-        <v>296</v>
-      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="7"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
@@ -4998,20 +5103,15 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C89" s="25" t="s">
-        <v>298</v>
-      </c>
+    <row r="89">
+      <c r="A89" s="7"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
       <c r="D89" s="7"/>
-      <c r="G89" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="H89" s="24" t="s">
-        <v>296</v>
-      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="7"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
@@ -5031,13 +5131,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
+    <row r="90" ht="18.75" customHeight="1">
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
@@ -5060,14 +5154,19 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
+      <c r="A91" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="G91" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="H91" s="24" t="s">
+        <v>308</v>
+      </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
@@ -5088,14 +5187,19 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
+      <c r="A92" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="G92" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="H92" s="24" t="s">
+        <v>308</v>
+      </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
@@ -5872,6 +5976,12 @@
       <c r="Z119" s="2"/>
     </row>
     <row r="120">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
@@ -5894,6 +6004,12 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
@@ -5916,6 +6032,12 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
@@ -6092,12 +6214,6 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
@@ -6120,12 +6236,6 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
@@ -6148,12 +6258,6 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
@@ -30479,26 +30583,110 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="A78:H78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G81:H81"/>
     <mergeCell ref="G82:H82"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
     <mergeCell ref="A84:F84"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A89:F89"/>
     <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="A90:F90"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="A5:B5"/>
@@ -30511,12 +30699,12 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="C86:F86"/>
+    <mergeCell ref="C82:F82"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C4:H4"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
     <mergeCell ref="C5:H5"/>
   </mergeCells>
   <drawing r:id="rId1"/>
